--- a/tabela_resumida.xlsx
+++ b/tabela_resumida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="154">
   <si>
     <t>Nº</t>
   </si>
@@ -34,157 +34,223 @@
     <t>OM</t>
   </si>
   <si>
-    <t>Sessão pública</t>
-  </si>
-  <si>
-    <t>Planejamento</t>
-  </si>
-  <si>
     <t>Aprovado</t>
   </si>
   <si>
     <t>Homologado</t>
   </si>
   <si>
-    <t>Empenhado</t>
-  </si>
-  <si>
     <t>Concluído</t>
   </si>
   <si>
-    <t>DE 15/2024</t>
-  </si>
-  <si>
-    <t>DE 16/2024</t>
-  </si>
-  <si>
-    <t>DE 14/2024</t>
-  </si>
-  <si>
-    <t>DE 42/2024</t>
-  </si>
-  <si>
-    <t>DE 43/2024</t>
-  </si>
-  <si>
-    <t>DE 06/2024</t>
-  </si>
-  <si>
-    <t>DE 13/2024</t>
-  </si>
-  <si>
-    <t>DE 22/2024</t>
-  </si>
-  <si>
-    <t>DE 21/2024</t>
-  </si>
-  <si>
-    <t>DE 18/2024</t>
-  </si>
-  <si>
-    <t>DE 17/2024</t>
+    <t>Arquivado</t>
+  </si>
+  <si>
+    <t>DE 90045/2024</t>
+  </si>
+  <si>
+    <t>DE 90035/2024</t>
+  </si>
+  <si>
+    <t>DE 90039/2024</t>
+  </si>
+  <si>
+    <t>DE 90040/2024</t>
+  </si>
+  <si>
+    <t>DE 90034/2024</t>
+  </si>
+  <si>
+    <t>DE 90043/2024</t>
+  </si>
+  <si>
+    <t>DE 90042/2024</t>
+  </si>
+  <si>
+    <t>DE 90041/2024</t>
+  </si>
+  <si>
+    <t>DE 90044/2024</t>
+  </si>
+  <si>
+    <t>DE 90046/2024</t>
+  </si>
+  <si>
+    <t>DE 90047/2024</t>
+  </si>
+  <si>
+    <t>DE 90048/2024</t>
+  </si>
+  <si>
+    <t>DE 90030/2024</t>
+  </si>
+  <si>
+    <t>DE 90031/2024</t>
+  </si>
+  <si>
+    <t>DE 90032/2024</t>
+  </si>
+  <si>
+    <t>DE 90036/2024</t>
+  </si>
+  <si>
+    <t>DE 90038/2024</t>
+  </si>
+  <si>
+    <t>DE 90037/2024</t>
+  </si>
+  <si>
+    <t>DE 90021/2024</t>
+  </si>
+  <si>
+    <t>DE 90026/2024</t>
+  </si>
+  <si>
+    <t>DE 90013/2024</t>
+  </si>
+  <si>
+    <t>DE 90014/2024</t>
+  </si>
+  <si>
+    <t>DE 90015/2024</t>
+  </si>
+  <si>
+    <t>DE 90016/2024</t>
+  </si>
+  <si>
+    <t>DE 90009/2024</t>
+  </si>
+  <si>
+    <t>DE 90007/2024</t>
+  </si>
+  <si>
+    <t>DE 90006/2024</t>
   </si>
   <si>
     <t>DE 90005/2024</t>
   </si>
   <si>
+    <t>DE 90004/2024</t>
+  </si>
+  <si>
     <t>DE 90003/2024</t>
   </si>
   <si>
-    <t>DE 48/2024</t>
-  </si>
-  <si>
-    <t>DE 90038/2024</t>
+    <t>DE 90002/2024</t>
+  </si>
+  <si>
+    <t>DE 90001/2024</t>
   </si>
   <si>
     <t>DE 90018/2024</t>
   </si>
   <si>
-    <t>DE 47/2024</t>
-  </si>
-  <si>
-    <t>DE 90100/2024</t>
-  </si>
-  <si>
-    <t>DE 44/2024</t>
-  </si>
-  <si>
-    <t>DE 19/2024</t>
-  </si>
-  <si>
-    <t>DE 20/2024</t>
-  </si>
-  <si>
-    <t>DE 32/2024</t>
-  </si>
-  <si>
-    <t>DE 31/2024</t>
-  </si>
-  <si>
-    <t>DE 46/2024</t>
-  </si>
-  <si>
-    <t>DE 39/2024</t>
-  </si>
-  <si>
-    <t>DE 41/2024</t>
-  </si>
-  <si>
-    <t>DE 35/2024</t>
-  </si>
-  <si>
-    <t>DE 34/2024</t>
-  </si>
-  <si>
-    <t>DE 30/2024</t>
-  </si>
-  <si>
-    <t>DE 45/2024</t>
-  </si>
-  <si>
-    <t>DE 37/2024</t>
-  </si>
-  <si>
-    <t>DE 26/2024</t>
-  </si>
-  <si>
-    <t>DE 28/2024</t>
-  </si>
-  <si>
-    <t>DE 40/2024</t>
-  </si>
-  <si>
-    <t>DE 27/2024</t>
-  </si>
-  <si>
-    <t>DE 38/2024</t>
-  </si>
-  <si>
-    <t>DE 08/2024</t>
-  </si>
-  <si>
-    <t>DE 09/2024</t>
-  </si>
-  <si>
-    <t>DE 10/2024</t>
-  </si>
-  <si>
-    <t>DE 11/2024</t>
-  </si>
-  <si>
-    <t>DE 12/2024</t>
-  </si>
-  <si>
-    <t>DE 07/2024</t>
-  </si>
-  <si>
-    <t>DE 23/2024</t>
-  </si>
-  <si>
-    <t>DE 29/2024</t>
-  </si>
-  <si>
-    <t>DE 33/2024</t>
+    <t>DE 90020/2024</t>
+  </si>
+  <si>
+    <t>DE 90019/2024</t>
+  </si>
+  <si>
+    <t>DE 90023/2024</t>
+  </si>
+  <si>
+    <t>DE 90025/2024</t>
+  </si>
+  <si>
+    <t>DE 90029/2024</t>
+  </si>
+  <si>
+    <t>DE 90027/2024</t>
+  </si>
+  <si>
+    <t>DE 90028/2024</t>
+  </si>
+  <si>
+    <t>DE 90024/2024</t>
+  </si>
+  <si>
+    <t>DE 90022/2024</t>
+  </si>
+  <si>
+    <t>DE 90033/2024</t>
+  </si>
+  <si>
+    <t>DE 90008/2024</t>
+  </si>
+  <si>
+    <t>DE 90011/2024</t>
+  </si>
+  <si>
+    <t>DE 90010/2024</t>
+  </si>
+  <si>
+    <t>DE 90012/2024</t>
+  </si>
+  <si>
+    <t>DE 90017/2024</t>
+  </si>
+  <si>
+    <t>63402.001718/2024-96</t>
+  </si>
+  <si>
+    <t>63402.001499/2024-45</t>
+  </si>
+  <si>
+    <t>63402.001637/2024-96</t>
+  </si>
+  <si>
+    <t>63402.001644/2024-98</t>
+  </si>
+  <si>
+    <t>63402.001294/2024-60</t>
+  </si>
+  <si>
+    <t>63402.001689/2024-62</t>
+  </si>
+  <si>
+    <t>63402.001653/2024-89</t>
+  </si>
+  <si>
+    <t>63402.001650/2024-45</t>
+  </si>
+  <si>
+    <t>63402.001690/2024-97</t>
+  </si>
+  <si>
+    <t>63402.001719/2024-31</t>
+  </si>
+  <si>
+    <t>63402.001720/2024-65</t>
+  </si>
+  <si>
+    <t>63402.001797/2024-35</t>
+  </si>
+  <si>
+    <t>63402.000678/2024-65</t>
+  </si>
+  <si>
+    <t>63402.000988/2024-80</t>
+  </si>
+  <si>
+    <t>63402.001006/2024-77</t>
+  </si>
+  <si>
+    <t>63402.001492/2024-23</t>
+  </si>
+  <si>
+    <t>63402.001579/2024-09</t>
+  </si>
+  <si>
+    <t>63402.001519/2024-88</t>
+  </si>
+  <si>
+    <t>63402.000310/2024-05</t>
+  </si>
+  <si>
+    <t>63402.000539/2024-31</t>
+  </si>
+  <si>
+    <t>62055.001951/2024-01</t>
   </si>
   <si>
     <t>-</t>
@@ -193,226 +259,211 @@
     <t>62055.000957/2024-53</t>
   </si>
   <si>
-    <t>63402.001653/2024-89</t>
-  </si>
-  <si>
-    <t>63402.001689/2024-62</t>
+    <t>62055.001855/2024-55</t>
+  </si>
+  <si>
+    <t>62055.001314/2024-27</t>
   </si>
   <si>
     <t>62055.001072/2024-71</t>
   </si>
   <si>
-    <t>62055.001951/2024-01</t>
+    <t>62055.001071/2024-27</t>
+  </si>
+  <si>
+    <t>62055.001070/2024-82</t>
+  </si>
+  <si>
+    <t>62055.001118/2024-52</t>
+  </si>
+  <si>
+    <t>62055.000565/2024-94</t>
+  </si>
+  <si>
+    <t>63402.000196/2024-13</t>
+  </si>
+  <si>
+    <t>63402.000291/2024-17</t>
+  </si>
+  <si>
+    <t>63402.000197/2024-50</t>
+  </si>
+  <si>
+    <t>63402.000513/2024-93</t>
+  </si>
+  <si>
+    <t>63402.000538/2024-97</t>
+  </si>
+  <si>
+    <t>63402.000543/2024-08</t>
+  </si>
+  <si>
+    <t>63402.000541/2024-19</t>
+  </si>
+  <si>
+    <t>63402.000542/2024-55</t>
+  </si>
+  <si>
+    <t>63402.000548/2024-22</t>
   </si>
   <si>
     <t>63402.000350/2024-49</t>
   </si>
   <si>
-    <t>63402.000310/2024-05</t>
-  </si>
-  <si>
-    <t>63402.000196/2024-13</t>
-  </si>
-  <si>
-    <t>62055.001071/2024-27</t>
-  </si>
-  <si>
-    <t>62055.001118/2024-52</t>
-  </si>
-  <si>
-    <t>62055.00000/2024-44</t>
-  </si>
-  <si>
-    <t>63402.001579/2024-09</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>63402.000197/2024-50</t>
-  </si>
-  <si>
-    <t>63402.000291/2024-17</t>
-  </si>
-  <si>
-    <t>63402.001006/2024-77</t>
-  </si>
-  <si>
-    <t>63402.000988/2024-80</t>
-  </si>
-  <si>
-    <t>63402.001637/2024-96</t>
-  </si>
-  <si>
-    <t>63402.001650/2024-45</t>
-  </si>
-  <si>
-    <t>63402.001499/2024-45</t>
-  </si>
-  <si>
-    <t>63402.001294/2024-60</t>
-  </si>
-  <si>
-    <t>63402.000678/2024-65</t>
-  </si>
-  <si>
-    <t>63402.001519/2024-88</t>
-  </si>
-  <si>
-    <t>63402.000539/2024-31</t>
-  </si>
-  <si>
-    <t>63402.000542/2024-55</t>
-  </si>
-  <si>
-    <t>63402.001644/2024-98</t>
-  </si>
-  <si>
-    <t>63402.000541/2024-19</t>
-  </si>
-  <si>
-    <t>62055.001855/2024-55</t>
+    <t>63402.001129/2024-16</t>
   </si>
   <si>
     <t>62055.001829/2024-27</t>
   </si>
   <si>
-    <t>62055.001314/2024-27</t>
-  </si>
-  <si>
-    <t>63402.000513/2024-93</t>
-  </si>
-  <si>
-    <t>63402.000543/2024-08</t>
-  </si>
-  <si>
-    <t>62055.5555/2024-50</t>
+    <t>Requeijão, Presunto e Mortadela</t>
+  </si>
+  <si>
+    <t>Armário de CAV</t>
+  </si>
+  <si>
+    <t>Papel A4</t>
+  </si>
+  <si>
+    <t>Detergente e Saco de Lixo 100L</t>
+  </si>
+  <si>
+    <t>Rodas dos Contêineres do Rancho</t>
+  </si>
+  <si>
+    <t>Confecção de painel</t>
+  </si>
+  <si>
+    <t>Cadeira fixa de Escritorio</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Capacho</t>
+  </si>
+  <si>
+    <t>Queijo e Manteiga</t>
+  </si>
+  <si>
+    <t>Ovos de Galinha e Codorna</t>
+  </si>
+  <si>
+    <t>Bebedouro</t>
+  </si>
+  <si>
+    <t>Aparelho Telefônico</t>
+  </si>
+  <si>
+    <t>Notebooks</t>
+  </si>
+  <si>
+    <t>Cadeiras de Escritório</t>
+  </si>
+  <si>
+    <t>Caixas Hotbox</t>
+  </si>
+  <si>
+    <t>Água Mineral</t>
+  </si>
+  <si>
+    <t>Instalação de Piso Vinílico</t>
+  </si>
+  <si>
+    <t>Materiais de Expediente</t>
+  </si>
+  <si>
+    <t>Abóbora, Batata e Abobrinha</t>
+  </si>
+  <si>
+    <t>Medalhas para Regata</t>
+  </si>
+  <si>
+    <t>Scanner Automotivo</t>
   </si>
   <si>
     <t>Moedas Institucionais</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gêneros Alimentícios (hortifrúti)</t>
-  </si>
-  <si>
-    <t>Scanner Automotivo</t>
-  </si>
-  <si>
-    <t>Cadeira fixa de Escritorio</t>
-  </si>
-  <si>
-    <t>Confecção de painel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serviços Gráficos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Materiais de Divulgação das Regatas do Circuito Poder Marítimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Câmera fotográfica Digital e Acessórios</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Materiais de Expediente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dedetização e Desratização</t>
+    <t>Batata, Cenoura, Abóbora e Banana</t>
+  </si>
+  <si>
+    <t>Display de acrílico A4</t>
+  </si>
+  <si>
+    <t>Materiais de Manutenção de TI</t>
+  </si>
+  <si>
+    <t>Serviços Gráficos</t>
+  </si>
+  <si>
+    <t>Material de Comunicação Social</t>
+  </si>
+  <si>
+    <t>Brasão Institucional</t>
+  </si>
+  <si>
+    <t>Instalação de Ar Condicionado</t>
+  </si>
+  <si>
+    <t>Legumes</t>
+  </si>
+  <si>
+    <t>Copos Descartáveis</t>
+  </si>
+  <si>
+    <t>Dedetização e Desratização</t>
+  </si>
+  <si>
+    <t>Materiais de Limpeza</t>
+  </si>
+  <si>
+    <t>Limpeza de Coifa</t>
+  </si>
+  <si>
+    <t>Material de Representação</t>
+  </si>
+  <si>
+    <t>Detergente, Cera, entre outros.</t>
+  </si>
+  <si>
+    <t>Mandioca, Vagem e Brócolis</t>
+  </si>
+  <si>
+    <t>Acelga, Alface e Couve</t>
+  </si>
+  <si>
+    <t>Maçã, Pera e Tangerina</t>
+  </si>
+  <si>
+    <t>Publicidade Legal</t>
+  </si>
+  <si>
+    <t>Câmera fotográfica Digital e Acessórios</t>
+  </si>
+  <si>
+    <t>Material de Copa e Cozinha</t>
+  </si>
+  <si>
+    <t>Cestas Básicas</t>
+  </si>
+  <si>
+    <t>Tampo de Vidro</t>
+  </si>
+  <si>
+    <t>Ar-Condicionado e Fragmentadora</t>
+  </si>
+  <si>
+    <t>Painel de Anúncio Backdrop</t>
   </si>
   <si>
     <t>Bolo Confeitado</t>
   </si>
   <si>
-    <t>Material de Comunicação Social</t>
-  </si>
-  <si>
-    <t>Instalação de Ar Condicionado</t>
-  </si>
-  <si>
-    <t>Microfone</t>
-  </si>
-  <si>
-    <t>Água Mineral</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>Gêneros Alimentícios (Laticínios)</t>
-  </si>
-  <si>
-    <t>testex</t>
-  </si>
-  <si>
-    <t>capacho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Limpeza, Higienização e Remoção de Gordura de Coifas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> materiais de Limpeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cadeiras de Escritório</t>
-  </si>
-  <si>
-    <t>Notebooks</t>
-  </si>
-  <si>
-    <t>Material de Expediente</t>
-  </si>
-  <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>teste2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Material de Comunicação Social</t>
-  </si>
-  <si>
-    <t>Gêneros alimentícios (Laticínios)</t>
-  </si>
-  <si>
-    <t>Instalação de Piso Vinílico</t>
-  </si>
-  <si>
-    <t>Material de Limpeza</t>
-  </si>
-  <si>
-    <t>Cestas Básicas</t>
-  </si>
-  <si>
-    <t>Display de acrílico A4</t>
-  </si>
-  <si>
-    <t>Ar-Condicionado e Fragmentadora de Papel</t>
-  </si>
-  <si>
-    <t>Tampo de Vidro</t>
-  </si>
-  <si>
-    <t>Painel de Anúncio Backdrop</t>
-  </si>
-  <si>
-    <t>Materiais de Manutenção de TI</t>
-  </si>
-  <si>
-    <t>Material de Representação</t>
-  </si>
-  <si>
-    <t>Gêneros Alimentícios (hortifrúti)</t>
-  </si>
-  <si>
-    <t>Material de Copa e Cozinha e Rancho</t>
-  </si>
-  <si>
     <t>CeIMBra</t>
   </si>
   <si>
     <t>Com7ºDN</t>
-  </si>
-  <si>
-    <t>HNBRA</t>
   </si>
   <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
@@ -833,7 +884,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -848,7 +899,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -858,7 +909,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -868,7 +919,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -878,7 +929,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -914,16 +965,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -934,16 +985,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -954,16 +1005,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -974,16 +1025,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -994,16 +1045,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1011,19 +1062,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1031,19 +1082,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1051,19 +1102,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1071,19 +1122,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1091,19 +1142,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1111,19 +1162,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1131,19 +1182,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1151,19 +1202,19 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1171,19 +1222,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1191,19 +1242,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1214,16 +1265,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1234,16 +1285,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1254,16 +1305,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1271,17 +1322,19 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="E24" s="5" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1289,19 +1342,19 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1309,19 +1362,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1329,19 +1382,19 @@
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1349,19 +1402,19 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1369,17 +1422,19 @@
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="E29" s="6" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1387,19 +1442,19 @@
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1407,19 +1462,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1427,19 +1482,19 @@
         <v>27</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1447,19 +1502,19 @@
         <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1467,19 +1522,19 @@
         <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1487,17 +1542,19 @@
         <v>30</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="E35" s="6" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1508,16 +1565,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1528,16 +1585,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1548,16 +1605,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1568,16 +1625,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1588,16 +1645,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1608,16 +1665,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1625,19 +1682,19 @@
         <v>37</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1645,19 +1702,19 @@
         <v>38</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1665,19 +1722,19 @@
         <v>39</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1685,19 +1742,19 @@
         <v>40</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1705,19 +1762,19 @@
         <v>41</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1725,19 +1782,19 @@
         <v>42</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1745,19 +1802,19 @@
         <v>43</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1765,19 +1822,19 @@
         <v>44</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1785,19 +1842,79 @@
         <v>45</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="6">
+        <v>46</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>130</v>
+      <c r="D52" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6">
+        <v>48</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/tabela_resumida.xlsx
+++ b/tabela_resumida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="138">
   <si>
     <t>Nº</t>
   </si>
@@ -34,430 +34,379 @@
     <t>OM</t>
   </si>
   <si>
+    <t>Sessão pública</t>
+  </si>
+  <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
     <t>Aprovado</t>
   </si>
   <si>
     <t>Homologado</t>
   </si>
   <si>
+    <t>Empenhado</t>
+  </si>
+  <si>
     <t>Concluído</t>
   </si>
   <si>
-    <t>Arquivado</t>
-  </si>
-  <si>
-    <t>DE 90045/2024</t>
-  </si>
-  <si>
-    <t>DE 90035/2024</t>
-  </si>
-  <si>
-    <t>DE 90039/2024</t>
-  </si>
-  <si>
-    <t>DE 90040/2024</t>
-  </si>
-  <si>
-    <t>DE 90034/2024</t>
-  </si>
-  <si>
-    <t>DE 90043/2024</t>
-  </si>
-  <si>
-    <t>DE 90042/2024</t>
-  </si>
-  <si>
-    <t>DE 90041/2024</t>
-  </si>
-  <si>
-    <t>DE 90044/2024</t>
-  </si>
-  <si>
-    <t>DE 90046/2024</t>
-  </si>
-  <si>
-    <t>DE 90047/2024</t>
-  </si>
-  <si>
-    <t>DE 90048/2024</t>
-  </si>
-  <si>
-    <t>DE 90030/2024</t>
-  </si>
-  <si>
-    <t>DE 90031/2024</t>
-  </si>
-  <si>
-    <t>DE 90032/2024</t>
-  </si>
-  <si>
-    <t>DE 90036/2024</t>
+    <t>DE 15/2024</t>
+  </si>
+  <si>
+    <t>DE 16/2024</t>
+  </si>
+  <si>
+    <t>DE 14/2024</t>
+  </si>
+  <si>
+    <t>DE 42/2024</t>
+  </si>
+  <si>
+    <t>DE 43/2024</t>
+  </si>
+  <si>
+    <t>DE 13/2024</t>
+  </si>
+  <si>
+    <t>DE 19/2024</t>
+  </si>
+  <si>
+    <t>DE 22/2024</t>
+  </si>
+  <si>
+    <t>DE 21/2024</t>
+  </si>
+  <si>
+    <t>DE 18/2024</t>
+  </si>
+  <si>
+    <t>DE 17/2024</t>
+  </si>
+  <si>
+    <t>DE 90005/2024</t>
+  </si>
+  <si>
+    <t>DE 90003/2024</t>
+  </si>
+  <si>
+    <t>DE 48/2024</t>
   </si>
   <si>
     <t>DE 90038/2024</t>
   </si>
   <si>
-    <t>DE 90037/2024</t>
-  </si>
-  <si>
-    <t>DE 90021/2024</t>
-  </si>
-  <si>
-    <t>DE 90026/2024</t>
-  </si>
-  <si>
-    <t>DE 90013/2024</t>
-  </si>
-  <si>
-    <t>DE 90014/2024</t>
-  </si>
-  <si>
-    <t>DE 90015/2024</t>
-  </si>
-  <si>
-    <t>DE 90016/2024</t>
-  </si>
-  <si>
-    <t>DE 90009/2024</t>
-  </si>
-  <si>
-    <t>DE 90007/2024</t>
-  </si>
-  <si>
-    <t>DE 90006/2024</t>
-  </si>
-  <si>
-    <t>DE 90005/2024</t>
-  </si>
-  <si>
-    <t>DE 90004/2024</t>
-  </si>
-  <si>
-    <t>DE 90003/2024</t>
-  </si>
-  <si>
-    <t>DE 90002/2024</t>
-  </si>
-  <si>
-    <t>DE 90001/2024</t>
-  </si>
-  <si>
     <t>DE 90018/2024</t>
   </si>
   <si>
-    <t>DE 90020/2024</t>
-  </si>
-  <si>
-    <t>DE 90019/2024</t>
-  </si>
-  <si>
-    <t>DE 90023/2024</t>
-  </si>
-  <si>
-    <t>DE 90025/2024</t>
-  </si>
-  <si>
-    <t>DE 90029/2024</t>
-  </si>
-  <si>
-    <t>DE 90027/2024</t>
-  </si>
-  <si>
-    <t>DE 90028/2024</t>
-  </si>
-  <si>
-    <t>DE 90024/2024</t>
-  </si>
-  <si>
-    <t>DE 90022/2024</t>
-  </si>
-  <si>
-    <t>DE 90033/2024</t>
-  </si>
-  <si>
-    <t>DE 90008/2024</t>
-  </si>
-  <si>
-    <t>DE 90011/2024</t>
-  </si>
-  <si>
-    <t>DE 90010/2024</t>
-  </si>
-  <si>
-    <t>DE 90012/2024</t>
-  </si>
-  <si>
-    <t>DE 90017/2024</t>
-  </si>
-  <si>
-    <t>63402.001718/2024-96</t>
+    <t>DE 47/2024</t>
+  </si>
+  <si>
+    <t>DE 90100/2024</t>
+  </si>
+  <si>
+    <t>DE 44/2024</t>
+  </si>
+  <si>
+    <t>DE 45/2024</t>
+  </si>
+  <si>
+    <t>DE 20/2024</t>
+  </si>
+  <si>
+    <t>DE 32/2024</t>
+  </si>
+  <si>
+    <t>DE 31/2024</t>
+  </si>
+  <si>
+    <t>DE 46/2024</t>
+  </si>
+  <si>
+    <t>DE 39/2024</t>
+  </si>
+  <si>
+    <t>DE 41/2024</t>
+  </si>
+  <si>
+    <t>DE 35/2024</t>
+  </si>
+  <si>
+    <t>DE 34/2024</t>
+  </si>
+  <si>
+    <t>DE 30/2024</t>
+  </si>
+  <si>
+    <t>DE 26/2024</t>
+  </si>
+  <si>
+    <t>DE 37/2024</t>
+  </si>
+  <si>
+    <t>DE 38/2024</t>
+  </si>
+  <si>
+    <t>DE 28/2024</t>
+  </si>
+  <si>
+    <t>DE 40/2024</t>
+  </si>
+  <si>
+    <t>DE 07/2024</t>
+  </si>
+  <si>
+    <t>DE 06/2024</t>
+  </si>
+  <si>
+    <t>DE 27/2024</t>
+  </si>
+  <si>
+    <t>DE 09/2024</t>
+  </si>
+  <si>
+    <t>DE 10/2024</t>
+  </si>
+  <si>
+    <t>DE 11/2024</t>
+  </si>
+  <si>
+    <t>DE 12/2024</t>
+  </si>
+  <si>
+    <t>DE 08/2024</t>
+  </si>
+  <si>
+    <t>DE 23/2024</t>
+  </si>
+  <si>
+    <t>DE 29/2024</t>
+  </si>
+  <si>
+    <t>DE 33/2024</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>62055.000957/2024-53</t>
+  </si>
+  <si>
+    <t>63402.001653/2024-89</t>
+  </si>
+  <si>
+    <t>63402.001689/2024-62</t>
+  </si>
+  <si>
+    <t>62055.001951/2024-01</t>
+  </si>
+  <si>
+    <t>63402.000197/2024-50</t>
+  </si>
+  <si>
+    <t>63402.000350/2024-49</t>
+  </si>
+  <si>
+    <t>63402.000310/2024-05</t>
+  </si>
+  <si>
+    <t>63402.000196/2024-13</t>
+  </si>
+  <si>
+    <t>62055.001071/2024-27</t>
+  </si>
+  <si>
+    <t>62055.001118/2024-52</t>
+  </si>
+  <si>
+    <t>62055.00000/2024-44</t>
+  </si>
+  <si>
+    <t>63402.001579/2024-09</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>63402.000291/2024-17</t>
+  </si>
+  <si>
+    <t>63402.001006/2024-77</t>
+  </si>
+  <si>
+    <t>63402.000988/2024-80</t>
+  </si>
+  <si>
+    <t>63402.001637/2024-96</t>
+  </si>
+  <si>
+    <t>63402.001650/2024-45</t>
   </si>
   <si>
     <t>63402.001499/2024-45</t>
   </si>
   <si>
-    <t>63402.001637/2024-96</t>
+    <t>63402.001294/2024-60</t>
+  </si>
+  <si>
+    <t>63402.000678/2024-65</t>
+  </si>
+  <si>
+    <t>63402.000539/2024-31</t>
+  </si>
+  <si>
+    <t>63402.001519/2024-88</t>
+  </si>
+  <si>
+    <t>63402.000542/2024-55</t>
   </si>
   <si>
     <t>63402.001644/2024-98</t>
   </si>
   <si>
-    <t>63402.001294/2024-60</t>
-  </si>
-  <si>
-    <t>63402.001689/2024-62</t>
-  </si>
-  <si>
-    <t>63402.001653/2024-89</t>
-  </si>
-  <si>
-    <t>63402.001650/2024-45</t>
-  </si>
-  <si>
-    <t>63402.001690/2024-97</t>
-  </si>
-  <si>
-    <t>63402.001719/2024-31</t>
-  </si>
-  <si>
-    <t>63402.001720/2024-65</t>
-  </si>
-  <si>
-    <t>63402.001797/2024-35</t>
-  </si>
-  <si>
-    <t>63402.000678/2024-65</t>
-  </si>
-  <si>
-    <t>63402.000988/2024-80</t>
-  </si>
-  <si>
-    <t>63402.001006/2024-77</t>
-  </si>
-  <si>
-    <t>63402.001492/2024-23</t>
-  </si>
-  <si>
-    <t>63402.001579/2024-09</t>
-  </si>
-  <si>
-    <t>63402.001519/2024-88</t>
-  </si>
-  <si>
-    <t>63402.000310/2024-05</t>
-  </si>
-  <si>
-    <t>63402.000539/2024-31</t>
-  </si>
-  <si>
-    <t>62055.001951/2024-01</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>62055.000957/2024-53</t>
+    <t>62055.001314/2024-27</t>
+  </si>
+  <si>
+    <t>62055.001072/2024-71</t>
+  </si>
+  <si>
+    <t>63402.000541/2024-19</t>
   </si>
   <si>
     <t>62055.001855/2024-55</t>
   </si>
   <si>
-    <t>62055.001314/2024-27</t>
-  </si>
-  <si>
-    <t>62055.001072/2024-71</t>
-  </si>
-  <si>
-    <t>62055.001071/2024-27</t>
-  </si>
-  <si>
-    <t>62055.001070/2024-82</t>
-  </si>
-  <si>
-    <t>62055.001118/2024-52</t>
-  </si>
-  <si>
-    <t>62055.000565/2024-94</t>
-  </si>
-  <si>
-    <t>63402.000196/2024-13</t>
-  </si>
-  <si>
-    <t>63402.000291/2024-17</t>
-  </si>
-  <si>
-    <t>63402.000197/2024-50</t>
+    <t>62055.001829/2024-27</t>
   </si>
   <si>
     <t>63402.000513/2024-93</t>
   </si>
   <si>
-    <t>63402.000538/2024-97</t>
-  </si>
-  <si>
     <t>63402.000543/2024-08</t>
   </si>
   <si>
-    <t>63402.000541/2024-19</t>
-  </si>
-  <si>
-    <t>63402.000542/2024-55</t>
-  </si>
-  <si>
-    <t>63402.000548/2024-22</t>
-  </si>
-  <si>
-    <t>63402.000350/2024-49</t>
-  </si>
-  <si>
-    <t>63402.001129/2024-16</t>
-  </si>
-  <si>
-    <t>62055.001829/2024-27</t>
-  </si>
-  <si>
-    <t>Requeijão, Presunto e Mortadela</t>
-  </si>
-  <si>
-    <t>Armário de CAV</t>
-  </si>
-  <si>
-    <t>Papel A4</t>
-  </si>
-  <si>
-    <t>Detergente e Saco de Lixo 100L</t>
-  </si>
-  <si>
-    <t>Rodas dos Contêineres do Rancho</t>
+    <t>62055.5555/2024-50</t>
+  </si>
+  <si>
+    <t>Moedas Institucionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gêneros Alimentícios (hortifrúti)</t>
+  </si>
+  <si>
+    <t>Scanner Automotivo</t>
+  </si>
+  <si>
+    <t>Cadeira fixa de Escritorio</t>
   </si>
   <si>
     <t>Confecção de painel</t>
   </si>
   <si>
-    <t>Cadeira fixa de Escritorio</t>
+    <t xml:space="preserve"> Materiais de Divulgação das Regatas do Circuito Poder Marítimo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Limpeza, Higienização e Remoção de Gordura de Coifas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Câmera fotográfica Digital e Acessórios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Materiais de Expediente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dedetização e Desratização</t>
+  </si>
+  <si>
+    <t>Bolo Confeitado</t>
+  </si>
+  <si>
+    <t>Material de Comunicação Social</t>
+  </si>
+  <si>
+    <t>Instalação de Ar Condicionado</t>
+  </si>
+  <si>
+    <t>Microfone</t>
+  </si>
+  <si>
+    <t>Água Mineral</t>
+  </si>
+  <si>
+    <t>teste</t>
+  </si>
+  <si>
+    <t>Gêneros Alimentícios (Laticínios)</t>
+  </si>
+  <si>
+    <t>testex</t>
+  </si>
+  <si>
+    <t>capacho</t>
+  </si>
+  <si>
+    <t>Gêneros alimentícios (Laticínios)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> materiais de Limpeza</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cadeiras de Escritório</t>
+  </si>
+  <si>
+    <t>Notebooks</t>
+  </si>
+  <si>
+    <t>Material de Expediente</t>
   </si>
   <si>
     <t>Mesa</t>
   </si>
   <si>
-    <t>Capacho</t>
-  </si>
-  <si>
-    <t>Queijo e Manteiga</t>
-  </si>
-  <si>
-    <t>Ovos de Galinha e Codorna</t>
-  </si>
-  <si>
-    <t>Bebedouro</t>
-  </si>
-  <si>
-    <t>Aparelho Telefônico</t>
-  </si>
-  <si>
-    <t>Notebooks</t>
-  </si>
-  <si>
-    <t>Cadeiras de Escritório</t>
-  </si>
-  <si>
-    <t>Caixas Hotbox</t>
-  </si>
-  <si>
-    <t>Água Mineral</t>
+    <t>teste2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Material de Comunicação Social</t>
   </si>
   <si>
     <t>Instalação de Piso Vinílico</t>
   </si>
   <si>
-    <t>Materiais de Expediente</t>
-  </si>
-  <si>
-    <t>Abóbora, Batata e Abobrinha</t>
-  </si>
-  <si>
-    <t>Medalhas para Regata</t>
-  </si>
-  <si>
-    <t>Scanner Automotivo</t>
-  </si>
-  <si>
-    <t>Moedas Institucionais</t>
-  </si>
-  <si>
-    <t>Batata, Cenoura, Abóbora e Banana</t>
+    <t>Material de Limpeza</t>
+  </si>
+  <si>
+    <t>Materiais de Manutenção de TI</t>
+  </si>
+  <si>
+    <t>Serviços Gráficos</t>
   </si>
   <si>
     <t>Display de acrílico A4</t>
   </si>
   <si>
-    <t>Materiais de Manutenção de TI</t>
-  </si>
-  <si>
-    <t>Serviços Gráficos</t>
-  </si>
-  <si>
-    <t>Material de Comunicação Social</t>
-  </si>
-  <si>
-    <t>Brasão Institucional</t>
-  </si>
-  <si>
-    <t>Instalação de Ar Condicionado</t>
-  </si>
-  <si>
-    <t>Legumes</t>
-  </si>
-  <si>
-    <t>Copos Descartáveis</t>
-  </si>
-  <si>
-    <t>Dedetização e Desratização</t>
-  </si>
-  <si>
-    <t>Materiais de Limpeza</t>
-  </si>
-  <si>
-    <t>Limpeza de Coifa</t>
+    <t>Ar-Condicionado e Fragmentadora de Papel</t>
+  </si>
+  <si>
+    <t>Tampo de Vidro</t>
+  </si>
+  <si>
+    <t>Painel de Anúncio Backdrop</t>
+  </si>
+  <si>
+    <t>Cestas Básicas</t>
   </si>
   <si>
     <t>Material de Representação</t>
   </si>
   <si>
-    <t>Detergente, Cera, entre outros.</t>
-  </si>
-  <si>
-    <t>Mandioca, Vagem e Brócolis</t>
-  </si>
-  <si>
-    <t>Acelga, Alface e Couve</t>
-  </si>
-  <si>
-    <t>Maçã, Pera e Tangerina</t>
-  </si>
-  <si>
-    <t>Publicidade Legal</t>
-  </si>
-  <si>
-    <t>Câmera fotográfica Digital e Acessórios</t>
-  </si>
-  <si>
-    <t>Material de Copa e Cozinha</t>
-  </si>
-  <si>
-    <t>Cestas Básicas</t>
-  </si>
-  <si>
-    <t>Tampo de Vidro</t>
-  </si>
-  <si>
-    <t>Ar-Condicionado e Fragmentadora</t>
-  </si>
-  <si>
-    <t>Painel de Anúncio Backdrop</t>
-  </si>
-  <si>
-    <t>Bolo Confeitado</t>
+    <t>Gêneros Alimentícios (hortifrúti)</t>
+  </si>
+  <si>
+    <t>Material de Copa e Cozinha e Rancho</t>
   </si>
   <si>
     <t>CeIMBra</t>
@@ -466,6 +415,9 @@
     <t>Com7ºDN</t>
   </si>
   <si>
+    <t>HNBRA</t>
+  </si>
+  <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
   </si>
   <si>
@@ -475,7 +427,7 @@
     <t>Controle de Dispensas Eletrônica</t>
   </si>
   <si>
-    <t>Atualizado em: 13/09/2024</t>
+    <t>Atualizado em: 22/09/2024</t>
   </si>
 </sst>
 </file>
@@ -884,7 +836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -899,7 +851,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -909,7 +861,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -919,7 +871,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -929,7 +881,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -965,16 +917,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -985,16 +937,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1005,16 +957,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1025,16 +977,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1045,16 +997,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1062,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1082,19 +1034,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1102,19 +1054,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1122,19 +1074,19 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1142,19 +1094,19 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1162,19 +1114,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1182,19 +1134,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1202,19 +1154,19 @@
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1222,19 +1174,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1242,19 +1194,19 @@
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1265,16 +1217,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1285,16 +1237,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1305,16 +1257,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1322,19 +1274,17 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1342,19 +1292,19 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1362,19 +1312,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1382,19 +1332,19 @@
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1402,19 +1352,19 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1422,19 +1372,17 @@
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1442,19 +1390,19 @@
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1462,19 +1410,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1482,19 +1430,19 @@
         <v>27</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1502,19 +1450,19 @@
         <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1522,19 +1470,19 @@
         <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1545,16 +1493,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1565,16 +1513,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1585,16 +1533,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1605,16 +1553,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1625,16 +1573,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1645,16 +1593,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1665,16 +1613,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1685,16 +1633,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1702,19 +1650,19 @@
         <v>38</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1722,19 +1670,19 @@
         <v>39</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1742,19 +1690,19 @@
         <v>40</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1762,19 +1710,19 @@
         <v>41</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1782,19 +1730,19 @@
         <v>42</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1802,19 +1750,19 @@
         <v>43</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1822,19 +1770,19 @@
         <v>44</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1842,79 +1790,19 @@
         <v>45</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="6">
-        <v>46</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5">
-        <v>47</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="6">
-        <v>48</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/tabela_resumida.xlsx
+++ b/tabela_resumida.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="152">
   <si>
     <t>Nº</t>
   </si>
@@ -34,9 +34,6 @@
     <t>OM</t>
   </si>
   <si>
-    <t>Sessão pública</t>
-  </si>
-  <si>
     <t>Planejamento</t>
   </si>
   <si>
@@ -46,367 +43,415 @@
     <t>Homologado</t>
   </si>
   <si>
-    <t>Empenhado</t>
-  </si>
-  <si>
     <t>Concluído</t>
   </si>
   <si>
-    <t>DE 15/2024</t>
-  </si>
-  <si>
-    <t>DE 16/2024</t>
-  </si>
-  <si>
-    <t>DE 14/2024</t>
-  </si>
-  <si>
-    <t>DE 42/2024</t>
-  </si>
-  <si>
-    <t>DE 43/2024</t>
-  </si>
-  <si>
-    <t>DE 13/2024</t>
-  </si>
-  <si>
-    <t>DE 19/2024</t>
-  </si>
-  <si>
-    <t>DE 22/2024</t>
-  </si>
-  <si>
-    <t>DE 21/2024</t>
-  </si>
-  <si>
-    <t>DE 18/2024</t>
-  </si>
-  <si>
-    <t>DE 17/2024</t>
+    <t>Arquivado</t>
+  </si>
+  <si>
+    <t>DE 90050/2024</t>
+  </si>
+  <si>
+    <t>DE 90049/2024</t>
+  </si>
+  <si>
+    <t>DE 90030/2024</t>
+  </si>
+  <si>
+    <t>DE 90046/2024</t>
+  </si>
+  <si>
+    <t>DE 90042/2024</t>
+  </si>
+  <si>
+    <t>DE 90045/2024</t>
+  </si>
+  <si>
+    <t>DE 90035/2024</t>
+  </si>
+  <si>
+    <t>DE 90041/2024</t>
+  </si>
+  <si>
+    <t>DE 90032/2024</t>
+  </si>
+  <si>
+    <t>DE 90034/2024</t>
+  </si>
+  <si>
+    <t>DE 90048/2024</t>
+  </si>
+  <si>
+    <t>DE 90044/2024</t>
+  </si>
+  <si>
+    <t>DE 90031/2024</t>
+  </si>
+  <si>
+    <t>DE 90043/2024</t>
+  </si>
+  <si>
+    <t>DE 90040/2024</t>
+  </si>
+  <si>
+    <t>DE 90039/2024</t>
+  </si>
+  <si>
+    <t>DE 90047/2024</t>
+  </si>
+  <si>
+    <t>DE 90037/2024</t>
+  </si>
+  <si>
+    <t>DE 90038/2024</t>
+  </si>
+  <si>
+    <t>DE 90033/2024</t>
+  </si>
+  <si>
+    <t>DE 90036/2024</t>
+  </si>
+  <si>
+    <t>DE 90015/2024</t>
+  </si>
+  <si>
+    <t>DE 90013/2024</t>
+  </si>
+  <si>
+    <t>DE 90016/2024</t>
+  </si>
+  <si>
+    <t>DE 90009/2024</t>
+  </si>
+  <si>
+    <t>DE 90011/2024</t>
+  </si>
+  <si>
+    <t>DE 90008/2024</t>
+  </si>
+  <si>
+    <t>DE 90007/2024</t>
   </si>
   <si>
     <t>DE 90005/2024</t>
   </si>
   <si>
+    <t>DE 90006/2024</t>
+  </si>
+  <si>
     <t>DE 90003/2024</t>
   </si>
   <si>
-    <t>DE 48/2024</t>
-  </si>
-  <si>
-    <t>DE 90038/2024</t>
+    <t>DE 90001/2024</t>
   </si>
   <si>
     <t>DE 90018/2024</t>
   </si>
   <si>
-    <t>DE 47/2024</t>
-  </si>
-  <si>
-    <t>DE 90100/2024</t>
-  </si>
-  <si>
-    <t>DE 44/2024</t>
-  </si>
-  <si>
-    <t>DE 45/2024</t>
-  </si>
-  <si>
-    <t>DE 20/2024</t>
-  </si>
-  <si>
-    <t>DE 32/2024</t>
-  </si>
-  <si>
-    <t>DE 31/2024</t>
-  </si>
-  <si>
-    <t>DE 46/2024</t>
-  </si>
-  <si>
-    <t>DE 39/2024</t>
-  </si>
-  <si>
-    <t>DE 41/2024</t>
-  </si>
-  <si>
-    <t>DE 35/2024</t>
-  </si>
-  <si>
-    <t>DE 34/2024</t>
-  </si>
-  <si>
-    <t>DE 30/2024</t>
-  </si>
-  <si>
-    <t>DE 26/2024</t>
-  </si>
-  <si>
-    <t>DE 37/2024</t>
-  </si>
-  <si>
-    <t>DE 38/2024</t>
-  </si>
-  <si>
-    <t>DE 28/2024</t>
-  </si>
-  <si>
-    <t>DE 40/2024</t>
-  </si>
-  <si>
-    <t>DE 07/2024</t>
-  </si>
-  <si>
-    <t>DE 06/2024</t>
-  </si>
-  <si>
-    <t>DE 27/2024</t>
-  </si>
-  <si>
-    <t>DE 09/2024</t>
-  </si>
-  <si>
-    <t>DE 10/2024</t>
-  </si>
-  <si>
-    <t>DE 11/2024</t>
-  </si>
-  <si>
-    <t>DE 12/2024</t>
-  </si>
-  <si>
-    <t>DE 08/2024</t>
-  </si>
-  <si>
-    <t>DE 23/2024</t>
-  </si>
-  <si>
-    <t>DE 29/2024</t>
-  </si>
-  <si>
-    <t>DE 33/2024</t>
+    <t>DE 90019/2024</t>
+  </si>
+  <si>
+    <t>DE 90017/2024</t>
+  </si>
+  <si>
+    <t>DE 90020/2024</t>
+  </si>
+  <si>
+    <t>DE 90021/2024</t>
+  </si>
+  <si>
+    <t>DE 90028/2024</t>
+  </si>
+  <si>
+    <t>DE 90029/2024</t>
+  </si>
+  <si>
+    <t>DE 90027/2024</t>
+  </si>
+  <si>
+    <t>DE 90023/2024</t>
+  </si>
+  <si>
+    <t>DE 90022/2024</t>
+  </si>
+  <si>
+    <t>DE 90026/2024</t>
+  </si>
+  <si>
+    <t>DE 90014/2024</t>
+  </si>
+  <si>
+    <t>DE 90004/2024</t>
+  </si>
+  <si>
+    <t>DE 90012/2024</t>
+  </si>
+  <si>
+    <t>DE 90010/2024</t>
+  </si>
+  <si>
+    <t>DE 90002/2024</t>
+  </si>
+  <si>
+    <t>63402.001895/2024-72</t>
+  </si>
+  <si>
+    <t>63402.001871/2024-13</t>
+  </si>
+  <si>
+    <t>63402.000678/2024-65</t>
+  </si>
+  <si>
+    <t>63402.001719/2024-31</t>
+  </si>
+  <si>
+    <t>63402.001653/2024-89</t>
+  </si>
+  <si>
+    <t>63402.001718/2024-96</t>
+  </si>
+  <si>
+    <t>63402.001499/2024-45</t>
+  </si>
+  <si>
+    <t>63402.001650/2024-45</t>
+  </si>
+  <si>
+    <t>63402.001006/2024-77</t>
+  </si>
+  <si>
+    <t>63402.001294/2024-60</t>
+  </si>
+  <si>
+    <t>63402.001797/2024-35</t>
+  </si>
+  <si>
+    <t>63402.001690/2024-97</t>
+  </si>
+  <si>
+    <t>63402.000988/2024-80</t>
+  </si>
+  <si>
+    <t>63402.001689/2024-62</t>
+  </si>
+  <si>
+    <t>63402.001644/2024-98</t>
+  </si>
+  <si>
+    <t>63402.001637/2024-96</t>
+  </si>
+  <si>
+    <t>63402.001720/2024-65</t>
+  </si>
+  <si>
+    <t>63402.001519/2024-88</t>
+  </si>
+  <si>
+    <t>63402.001579/2024-09</t>
+  </si>
+  <si>
+    <t>63402.001129/2024-16</t>
+  </si>
+  <si>
+    <t>63402.001492/2024-23</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
+    <t>62055.001951/2024-01</t>
+  </si>
+  <si>
     <t>62055.000957/2024-53</t>
   </si>
   <si>
-    <t>63402.001653/2024-89</t>
-  </si>
-  <si>
-    <t>63402.001689/2024-62</t>
-  </si>
-  <si>
-    <t>62055.001951/2024-01</t>
+    <t>62055.001855/2024-55</t>
+  </si>
+  <si>
+    <t>62055.001314/2024-27</t>
+  </si>
+  <si>
+    <t>62055.001071/2024-27</t>
+  </si>
+  <si>
+    <t>62055.001072/2024-71</t>
+  </si>
+  <si>
+    <t>62055.001118/2024-52</t>
+  </si>
+  <si>
+    <t>62055.000565/2024-94</t>
+  </si>
+  <si>
+    <t>63402.000196/2024-13</t>
   </si>
   <si>
     <t>63402.000197/2024-50</t>
   </si>
   <si>
+    <t>63402.000291/2024-17</t>
+  </si>
+  <si>
+    <t>63402.000310/2024-05</t>
+  </si>
+  <si>
+    <t>63402.000542/2024-55</t>
+  </si>
+  <si>
+    <t>63402.000543/2024-08</t>
+  </si>
+  <si>
+    <t>63402.000541/2024-19</t>
+  </si>
+  <si>
+    <t>63402.000513/2024-93</t>
+  </si>
+  <si>
     <t>63402.000350/2024-49</t>
   </si>
   <si>
-    <t>63402.000310/2024-05</t>
-  </si>
-  <si>
-    <t>63402.000196/2024-13</t>
-  </si>
-  <si>
-    <t>62055.001071/2024-27</t>
-  </si>
-  <si>
-    <t>62055.001118/2024-52</t>
-  </si>
-  <si>
-    <t>62055.00000/2024-44</t>
-  </si>
-  <si>
-    <t>63402.001579/2024-09</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>63402.000291/2024-17</t>
-  </si>
-  <si>
-    <t>63402.001006/2024-77</t>
-  </si>
-  <si>
-    <t>63402.000988/2024-80</t>
-  </si>
-  <si>
-    <t>63402.001637/2024-96</t>
-  </si>
-  <si>
-    <t>63402.001650/2024-45</t>
-  </si>
-  <si>
-    <t>63402.001499/2024-45</t>
-  </si>
-  <si>
-    <t>63402.001294/2024-60</t>
-  </si>
-  <si>
-    <t>63402.000678/2024-65</t>
-  </si>
-  <si>
     <t>63402.000539/2024-31</t>
   </si>
   <si>
-    <t>63402.001519/2024-88</t>
-  </si>
-  <si>
-    <t>63402.000542/2024-55</t>
-  </si>
-  <si>
-    <t>63402.001644/2024-98</t>
-  </si>
-  <si>
-    <t>62055.001314/2024-27</t>
-  </si>
-  <si>
-    <t>62055.001072/2024-71</t>
-  </si>
-  <si>
-    <t>63402.000541/2024-19</t>
-  </si>
-  <si>
-    <t>62055.001855/2024-55</t>
-  </si>
-  <si>
     <t>62055.001829/2024-27</t>
   </si>
   <si>
-    <t>63402.000513/2024-93</t>
-  </si>
-  <si>
-    <t>63402.000543/2024-08</t>
-  </si>
-  <si>
-    <t>62055.5555/2024-50</t>
+    <t>Instalação de Piso Vinílico</t>
+  </si>
+  <si>
+    <t>Placa de homenagem</t>
+  </si>
+  <si>
+    <t>Aparelho Telefônico</t>
+  </si>
+  <si>
+    <t>Queijo e Manteiga</t>
+  </si>
+  <si>
+    <t>Cadeira fixa de Escritorio</t>
+  </si>
+  <si>
+    <t>Requeijão, Presunto e Mortadela</t>
+  </si>
+  <si>
+    <t>Armário de  CAV</t>
+  </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>Cadeiras de Escritório</t>
+  </si>
+  <si>
+    <t>Rodas dos Contêineres do Rancho</t>
+  </si>
+  <si>
+    <t>Bebedouro</t>
+  </si>
+  <si>
+    <t>Capacho</t>
+  </si>
+  <si>
+    <t>Notebooks</t>
+  </si>
+  <si>
+    <t>Confecção de painel</t>
+  </si>
+  <si>
+    <t>Material de Limpeza</t>
+  </si>
+  <si>
+    <t>Material de Expediente</t>
+  </si>
+  <si>
+    <t>Ovos de Galinha e Codorna</t>
+  </si>
+  <si>
+    <t>Água Mineral</t>
+  </si>
+  <si>
+    <t>Material de Copa e Cozinha e Rancho</t>
+  </si>
+  <si>
+    <t>Caixas Hotbox</t>
   </si>
   <si>
     <t>Moedas Institucionais</t>
   </si>
   <si>
-    <t xml:space="preserve"> Gêneros Alimentícios (hortifrúti)</t>
+    <t>Materiais de Divulgação das Regatas do Circuito Poder Marítimo</t>
+  </si>
+  <si>
+    <t>Gêneros Alimentícios (hortifrúti)</t>
+  </si>
+  <si>
+    <t>Display de acrílico A4</t>
+  </si>
+  <si>
+    <t>Tampo de Vidro</t>
+  </si>
+  <si>
+    <t>Cestas Básicas</t>
+  </si>
+  <si>
+    <t>Materiais de Manutenção de TI</t>
+  </si>
+  <si>
+    <t>Material de Comunicação Social</t>
+  </si>
+  <si>
+    <t>Serviços Gráficos</t>
+  </si>
+  <si>
+    <t>Instalação de Ar Condicionado</t>
+  </si>
+  <si>
+    <t>Materiais Descartáveis</t>
+  </si>
+  <si>
+    <t>Dedetização e Desratização</t>
+  </si>
+  <si>
+    <t>Limpeza, Higienização e Remoção de Gordura de Coifas</t>
+  </si>
+  <si>
+    <t>Bolo Confeitado</t>
+  </si>
+  <si>
+    <t>Materiais de Limpeza</t>
+  </si>
+  <si>
+    <t>Materiais de Expediente</t>
+  </si>
+  <si>
+    <t>Gêneros Alimentícios (Frutas)</t>
+  </si>
+  <si>
+    <t>Gêneros Alimentícios (Legumes)</t>
+  </si>
+  <si>
+    <t>Gêneros Alimentícios (Verdura)</t>
+  </si>
+  <si>
+    <t>Material de Representação</t>
+  </si>
+  <si>
+    <t>Câmera fotográfica Digital e Acessórios</t>
   </si>
   <si>
     <t>Scanner Automotivo</t>
   </si>
   <si>
-    <t>Cadeira fixa de Escritorio</t>
-  </si>
-  <si>
-    <t>Confecção de painel</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Materiais de Divulgação das Regatas do Circuito Poder Marítimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Limpeza, Higienização e Remoção de Gordura de Coifas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Câmera fotográfica Digital e Acessórios</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Materiais de Expediente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dedetização e Desratização</t>
-  </si>
-  <si>
-    <t>Bolo Confeitado</t>
-  </si>
-  <si>
-    <t>Material de Comunicação Social</t>
-  </si>
-  <si>
-    <t>Instalação de Ar Condicionado</t>
-  </si>
-  <si>
-    <t>Microfone</t>
-  </si>
-  <si>
-    <t>Água Mineral</t>
-  </si>
-  <si>
-    <t>teste</t>
-  </si>
-  <si>
-    <t>Gêneros Alimentícios (Laticínios)</t>
-  </si>
-  <si>
-    <t>testex</t>
-  </si>
-  <si>
-    <t>capacho</t>
-  </si>
-  <si>
-    <t>Gêneros alimentícios (Laticínios)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> materiais de Limpeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cadeiras de Escritório</t>
-  </si>
-  <si>
-    <t>Notebooks</t>
-  </si>
-  <si>
-    <t>Material de Expediente</t>
-  </si>
-  <si>
-    <t>Mesa</t>
-  </si>
-  <si>
-    <t>teste2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Material de Comunicação Social</t>
-  </si>
-  <si>
-    <t>Instalação de Piso Vinílico</t>
-  </si>
-  <si>
-    <t>Material de Limpeza</t>
-  </si>
-  <si>
-    <t>Materiais de Manutenção de TI</t>
-  </si>
-  <si>
-    <t>Serviços Gráficos</t>
-  </si>
-  <si>
-    <t>Display de acrílico A4</t>
+    <t>Cadeiras</t>
+  </si>
+  <si>
+    <t>Painel de Anúncio Backdrop</t>
   </si>
   <si>
     <t>Ar-Condicionado e Fragmentadora de Papel</t>
   </si>
   <si>
-    <t>Tampo de Vidro</t>
-  </si>
-  <si>
-    <t>Painel de Anúncio Backdrop</t>
-  </si>
-  <si>
-    <t>Cestas Básicas</t>
-  </si>
-  <si>
-    <t>Material de Representação</t>
-  </si>
-  <si>
-    <t>Gêneros Alimentícios (hortifrúti)</t>
-  </si>
-  <si>
-    <t>Material de Copa e Cozinha e Rancho</t>
+    <t>Frutas e Legumes</t>
   </si>
   <si>
     <t>CeIMBra</t>
@@ -415,9 +460,6 @@
     <t>Com7ºDN</t>
   </si>
   <si>
-    <t>HNBRA</t>
-  </si>
-  <si>
     <t>Centro de Intendência da Marinha em Brasília</t>
   </si>
   <si>
@@ -427,7 +469,7 @@
     <t>Controle de Dispensas Eletrônica</t>
   </si>
   <si>
-    <t>Atualizado em: 22/09/2024</t>
+    <t>Atualizado em: 23/09/2024</t>
   </si>
 </sst>
 </file>
@@ -836,7 +878,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -851,7 +893,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="20" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -861,7 +903,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -871,7 +913,7 @@
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -881,7 +923,7 @@
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -917,16 +959,16 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -937,16 +979,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -957,16 +999,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -974,19 +1016,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -994,19 +1036,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1017,16 +1059,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1037,16 +1079,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1057,16 +1099,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1077,16 +1119,16 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1097,16 +1139,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1117,16 +1159,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1137,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1157,16 +1199,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1177,16 +1219,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1197,16 +1239,16 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1217,16 +1259,16 @@
         <v>7</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1237,16 +1279,16 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1254,19 +1296,19 @@
         <v>18</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1274,17 +1316,19 @@
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="E24" s="5" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1292,19 +1336,19 @@
         <v>20</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1312,19 +1356,19 @@
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1332,19 +1376,19 @@
         <v>22</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1352,19 +1396,19 @@
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1372,17 +1416,19 @@
         <v>24</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="E29" s="6" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1390,19 +1436,19 @@
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1410,19 +1456,19 @@
         <v>26</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1430,19 +1476,19 @@
         <v>27</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1450,19 +1496,19 @@
         <v>28</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1470,19 +1516,19 @@
         <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1490,19 +1536,19 @@
         <v>30</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1510,19 +1556,19 @@
         <v>31</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1530,19 +1576,19 @@
         <v>32</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1550,19 +1596,19 @@
         <v>33</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1570,19 +1616,19 @@
         <v>34</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1590,19 +1636,19 @@
         <v>35</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1610,19 +1656,19 @@
         <v>36</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1630,19 +1676,19 @@
         <v>37</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1653,16 +1699,16 @@
         <v>9</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1673,16 +1719,16 @@
         <v>9</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1693,16 +1739,16 @@
         <v>9</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1713,16 +1759,16 @@
         <v>9</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1733,16 +1779,16 @@
         <v>9</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1750,19 +1796,19 @@
         <v>43</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1773,16 +1819,16 @@
         <v>10</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1790,19 +1836,79 @@
         <v>45</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="6">
+        <v>46</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>131</v>
+      <c r="D51" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5">
+        <v>47</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="6">
+        <v>48</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
